--- a/Execucoes Gerais/novo_final_GEOreal2PDS_vs_AGEOreal2PDS.xlsx
+++ b/Execucoes Gerais/novo_final_GEOreal2PDS_vs_AGEOreal2PDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13335" windowHeight="12360" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="14460" windowHeight="7860" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="SCH" sheetId="4" r:id="rId4"/>
     <sheet name="ACK" sheetId="5" r:id="rId5"/>
     <sheet name="BEA" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
   <si>
     <t>NFE</t>
   </si>
@@ -74,16 +75,40 @@
   <si>
     <t>Execution Time: 132 s</t>
   </si>
+  <si>
+    <t>TIMESAT</t>
+  </si>
+  <si>
+    <t>CropPhen</t>
+  </si>
+  <si>
+    <t>Phenofit</t>
+  </si>
+  <si>
+    <t>DATimes</t>
+  </si>
+  <si>
+    <t>Extrair métricas de 1 série temporal</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Extrair métricas de 1+ séries temporais</t>
+  </si>
+  <si>
+    <t>Extrair métricas de um stack de imagens</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +116,20 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,54 +141,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +157,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -171,11 +180,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,39 +225,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -247,7 +272,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,67 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,103 +452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,11 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,26 +507,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,8 +532,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,109 +568,130 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -654,37 +700,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1530,7 +1555,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2460,7 +2485,6 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3389,7 +3413,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3467,6 +3491,7 @@
         <c:crossAx val="357432052"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5244,7 +5269,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6173,7 +6198,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="100"/>
+          <c:max val="1000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6251,6 +6276,7 @@
         <c:crossAx val="357432052"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9676,13 +9702,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -9690,7 +9716,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="685800" y="7423150"/>
+        <a:off x="685800" y="7432675"/>
         <a:ext cx="4114800" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -11651,8 +11677,8 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B1:B40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12281,7 +12307,7 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="B40" sqref="B1:B40"/>
     </sheetView>
   </sheetViews>
@@ -12903,8 +12929,8 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B1:B40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13516,7 +13542,7 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B40" sqref="B1:B40"/>
     </sheetView>
   </sheetViews>
@@ -14129,8 +14155,8 @@
   <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B1:B40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -14733,8 +14759,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15398,4 +15424,77 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="5" spans="5:8">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Execucoes Gerais/novo_final_GEOreal2PDS_vs_AGEOreal2PDS.xlsx
+++ b/Execucoes Gerais/novo_final_GEOreal2PDS_vs_AGEOreal2PDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14460" windowHeight="7860" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="19485" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
     <sheet name="SCH" sheetId="4" r:id="rId4"/>
     <sheet name="ACK" sheetId="5" r:id="rId5"/>
     <sheet name="BEA" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="19">
   <si>
     <t>NFE</t>
   </si>
@@ -28,7 +27,7 @@
     <t>GEOreal2_P_DS</t>
   </si>
   <si>
-    <t>AGEOreal2_P_DS</t>
+    <t>A-GEOreal2_P_DS</t>
   </si>
   <si>
     <t>============================================================================</t>
@@ -38,6 +37,9 @@
   </si>
   <si>
     <t>parameter</t>
+  </si>
+  <si>
+    <t>AGEOreal2_P_DS</t>
   </si>
   <si>
     <t>meanNFE</t>
@@ -75,40 +77,16 @@
   <si>
     <t>Execution Time: 132 s</t>
   </si>
-  <si>
-    <t>TIMESAT</t>
-  </si>
-  <si>
-    <t>CropPhen</t>
-  </si>
-  <si>
-    <t>Phenofit</t>
-  </si>
-  <si>
-    <t>DATimes</t>
-  </si>
-  <si>
-    <t>Extrair métricas de 1 série temporal</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Extrair métricas de 1+ séries temporais</t>
-  </si>
-  <si>
-    <t>Extrair métricas de um stack de imagens</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,8 +97,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,17 +119,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,15 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -174,29 +175,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,7 +190,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,42 +219,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -272,7 +250,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,19 +328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,73 +352,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,13 +388,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,49 +430,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +444,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,16 +472,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,13 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,148 +546,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1163,7 +1141,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>A-GEOreal2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2093,7 +2071,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>A-GEOreal2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3021,7 +2999,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>A-GEOreal2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3950,7 +3928,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>A-GEOreal2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4877,7 +4855,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>A-GEOreal2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5806,7 +5784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGEOreal2_P_DS</c:v>
+                  <c:v>A-GEOreal2_P_DS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -11678,7 +11656,7 @@
   <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12173,7 +12151,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -12184,7 +12162,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>100000</v>
@@ -12201,7 +12179,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="1">
         <v>0.0304997021243017</v>
@@ -12218,7 +12196,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -12235,7 +12213,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1">
         <v>0.113082626493416</v>
@@ -12252,7 +12230,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1">
         <v>0.0245904374517761</v>
@@ -12269,7 +12247,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1">
         <v>0.0269278872544891</v>
@@ -12307,8 +12285,8 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B40" sqref="B1:B40"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12786,7 +12764,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -12818,7 +12796,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -12829,7 +12807,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B63" s="1">
         <v>100000</v>
@@ -12846,7 +12824,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B64" s="2">
         <v>1.84741111297626e-15</v>
@@ -12863,7 +12841,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -12880,7 +12858,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2">
         <v>7.105427357601e-15</v>
@@ -12897,7 +12875,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -12908,7 +12886,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B68" s="3">
         <v>3.14832602792202e-15</v>
@@ -12929,8 +12907,8 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13393,7 +13371,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -13425,7 +13403,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -13436,7 +13414,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>100000</v>
@@ -13453,7 +13431,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
         <v>4.73070710192077e-9</v>
@@ -13470,7 +13448,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>4.66960068704305e-11</v>
@@ -13487,7 +13465,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>5.11092089969543e-8</v>
@@ -13504,7 +13482,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>2.1107460854854e-9</v>
@@ -13521,7 +13499,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="3">
         <v>9.35709167664272e-9</v>
@@ -13542,8 +13520,8 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B40" sqref="B1:B40"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14006,7 +13984,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -14038,7 +14016,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14049,7 +14027,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>100000</v>
@@ -14066,7 +14044,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
         <v>0.000127275662653119</v>
@@ -14083,7 +14061,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>0.000127275662634929</v>
@@ -14100,7 +14078,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>0.000127275663544423</v>
@@ -14117,7 +14095,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>0.000127275662634929</v>
@@ -14134,7 +14112,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="3">
         <v>1.28621974215375e-13</v>
@@ -14155,8 +14133,8 @@
   <sheetPr/>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -14618,7 +14596,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -14648,7 +14626,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -14658,7 +14636,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>100200</v>
@@ -14674,7 +14652,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
         <v>5.27127075145017e-8</v>
@@ -14690,7 +14668,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>3.04552258967305e-8</v>
@@ -14706,7 +14684,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>8.43246183990231e-8</v>
@@ -14722,7 +14700,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>5.11905362543529e-8</v>
@@ -14738,7 +14716,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="3">
         <v>1.06587129779968e-8</v>
@@ -14759,8 +14737,8 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15260,7 +15238,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -15292,7 +15270,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -15303,7 +15281,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>100000</v>
@@ -15320,7 +15298,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B63" s="2">
         <v>8.74473969194722e-9</v>
@@ -15337,7 +15315,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>3.37010592923997e-10</v>
@@ -15354,7 +15332,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2">
         <v>4.85417370540184e-8</v>
@@ -15371,7 +15349,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" s="2">
         <v>4.08783332099894e-9</v>
@@ -15388,7 +15366,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B67" s="2">
         <v>1.0915476728172e-8</v>
@@ -15416,7 +15394,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -15424,77 +15402,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A5:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="7"/>
-  <sheetData>
-    <row r="5" spans="5:8">
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Execucoes Gerais/novo_final_GEOreal2PDS_vs_AGEOreal2PDS.xlsx
+++ b/Execucoes Gerais/novo_final_GEOreal2PDS_vs_AGEOreal2PDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19485" windowHeight="7860" activeTab="5"/>
+    <workbookView windowWidth="19485" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="GRI" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,28 +94,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -135,10 +113,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -147,6 +155,14 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,11 +181,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,16 +211,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -219,23 +233,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,13 +250,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,7 +274,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,7 +304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,7 +316,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,121 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,6 +453,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -468,11 +501,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,192 +541,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1470,7 +1470,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -1480,7 +1480,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.248456790123457"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -2400,7 +2400,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -2410,8 +2410,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.246141975308642"/>
+              <c:y val="0.913202622608895"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3328,7 +3328,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -3338,7 +3338,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.243827160493827"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -4257,7 +4257,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -4267,8 +4267,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.243827160493827"/>
+              <c:y val="0.920147067053339"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -5184,7 +5184,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -5194,7 +5194,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
+              <c:x val="0.250771604938272"/>
               <c:y val="0.916674844831117"/>
             </c:manualLayout>
           </c:layout>
@@ -6113,7 +6113,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-PT" altLang="en-US"/>
-                  <a:t>NFE</a:t>
+                  <a:t>Número de avaliações da função objetivo</a:t>
                 </a:r>
                 <a:endParaRPr lang="pt-PT" altLang="en-US"/>
               </a:p>
@@ -6123,8 +6123,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.521536243298832"/>
-              <c:y val="0.916674844831117"/>
+              <c:x val="0.253086419753086"/>
+              <c:y val="0.920147067053339"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -11655,7 +11655,7 @@
   <sheetPr/>
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -14737,7 +14737,7 @@
   <sheetPr/>
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
